--- a/Learn At Home/Office Case Studies/1. Excel Case Study 3 Hours of Work in just 3 Minutes using Batch files/Photo Data.xlsx
+++ b/Learn At Home/Office Case Studies/1. Excel Case Study 3 Hours of Work in just 3 Minutes using Batch files/Photo Data.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Power-BI\Learn At Home\Power BI External Tools\4. Office Case Studies\1. Excel Case Study 3 Hours of Work in just 3 Minutes using Batch files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Power-BI\Learn At Home\Office Case Studies\1. Excel Case Study 3 Hours of Work in just 3 Minutes using Batch files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCAB20B7-BFFD-4638-8913-1B86E8D8B24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B1ADC5-B7F2-486D-85F0-3169ACB13A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC1E0DE6-735A-4462-A566-CC2BCA22E6B2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{AC1E0DE6-735A-4462-A566-CC2BCA22E6B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="RENAMEFILES" sheetId="3" r:id="rId2"/>
+    <sheet name="REBACKFILES" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$A$1:$C$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>SN</t>
   </si>
@@ -81,6 +86,81 @@
   </si>
   <si>
     <t>INACTIVE</t>
+  </si>
+  <si>
+    <t>REN "Old name" "new name"</t>
+  </si>
+  <si>
+    <t>REN</t>
+  </si>
+  <si>
+    <t>OLD name</t>
+  </si>
+  <si>
+    <t>New name</t>
+  </si>
+  <si>
+    <t>A (1)</t>
+  </si>
+  <si>
+    <t>A (2)</t>
+  </si>
+  <si>
+    <t>A (4)</t>
+  </si>
+  <si>
+    <t>A (5)</t>
+  </si>
+  <si>
+    <t>A (7)</t>
+  </si>
+  <si>
+    <t>A (8)</t>
+  </si>
+  <si>
+    <t>A (10)</t>
+  </si>
+  <si>
+    <t>"AAA-A (1).JPG"</t>
+  </si>
+  <si>
+    <t>"AAA-A (2).JPG"</t>
+  </si>
+  <si>
+    <t>"AAA-A (4).JPG"</t>
+  </si>
+  <si>
+    <t>"AAA-A (5).JPG"</t>
+  </si>
+  <si>
+    <t>"AAA-A (7).JPG"</t>
+  </si>
+  <si>
+    <t>"AAA-A (8).JPG"</t>
+  </si>
+  <si>
+    <t>"AAA-A (10).JPG"</t>
+  </si>
+  <si>
+    <t>"A (1).JPG"</t>
+  </si>
+  <si>
+    <t>"A (2).JPG"</t>
+  </si>
+  <si>
+    <t>"A (4).JPG"</t>
+  </si>
+  <si>
+    <t>"A (5).JPG"</t>
+  </si>
+  <si>
+    <t>"A (7).JPG"</t>
+  </si>
+  <si>
+    <t>"A (8).JPG"</t>
+  </si>
+  <si>
+    <t>"A (10).JPG"</t>
   </si>
 </sst>
 </file>
@@ -150,12 +230,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79BA490-825F-405F-AD37-FCEC9F4C58B7}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +708,286 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C11" xr:uid="{D79BA490-825F-405F-AD37-FCEC9F4C58B7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5A7C6F-41D5-47AF-A02E-597277B0906C}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="str">
+        <f>""""&amp;B3&amp;".JPG"""</f>
+        <v>"A (1).JPG"</v>
+      </c>
+      <c r="F3" t="str">
+        <f>"""AAA-"&amp;B3&amp;".JPG"""</f>
+        <v>"AAA-A (1).JPG"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E9" si="0">""""&amp;B4&amp;".JPG"""</f>
+        <v>"A (2).JPG"</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F9" si="1">"""AAA-"&amp;B4&amp;".JPG"""</f>
+        <v>"AAA-A (2).JPG"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>"A (4).JPG"</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>"AAA-A (4).JPG"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>"A (5).JPG"</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>"AAA-A (5).JPG"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>"A (7).JPG"</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>"AAA-A (7).JPG"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>"A (8).JPG"</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>"AAA-A (8).JPG"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>"A (10).JPG"</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>"AAA-A (10).JPG"</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2C8832-57D0-4A0B-A0F2-473F20B30D4B}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>